--- a/Sample/table.xlsx
+++ b/Sample/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24270" windowHeight="13500"/>
+    <workbookView windowWidth="23595" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -33,6 +33,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -42,7 +48,7 @@
     <t>文件列表</t>
   </si>
   <si>
-    <t>模式(one,list)</t>
+    <t>模式(map,list)</t>
   </si>
   <si>
     <t>主键</t>
@@ -66,7 +72,7 @@
     <t>Sheet1@通用配置.xlsx</t>
   </si>
   <si>
-    <t>one</t>
+    <t>map</t>
   </si>
 </sst>
 </file>
@@ -75,8 +81,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,60 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,8 +110,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +141,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +185,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,15 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -226,7 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +253,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +361,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,145 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,35 +498,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -532,16 +518,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -1071,45 +1077,65 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
         <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Sample/table.xlsx
+++ b/Sample/table.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -80,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -94,6 +92,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -102,6 +129,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -110,6 +151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -119,51 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,14 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +198,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,15 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +436,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,56 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,16 +506,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,36 +1140,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Sample/table.xlsx
+++ b/Sample/table.xlsx
@@ -61,7 +61,7 @@
     <t>list</t>
   </si>
   <si>
-    <t>id</t>
+    <t>index,id</t>
   </si>
   <si>
     <t>sysConfig</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,21 +93,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,7 +116,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,24 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,47 +200,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,61 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,121 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,17 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,11 +478,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,38 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Sample/table.xlsx
+++ b/Sample/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23595" windowHeight="13500"/>
+    <workbookView windowWidth="23700" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>##var</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>buff.xlsx</t>
+  </si>
+  <si>
+    <t>id,type</t>
   </si>
 </sst>
 </file>
@@ -80,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,23 +139,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +224,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,24 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +254,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,6 +356,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,19 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,121 +398,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,41 +448,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,7 +478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +500,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +525,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -1136,8 +1145,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>